--- a/data/flea_dog_cat_foxes.xlsx
+++ b/data/flea_dog_cat_foxes.xlsx
@@ -412,7 +412,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -429,7 +429,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>

--- a/data/flea_dog_cat_foxes.xlsx
+++ b/data/flea_dog_cat_foxes.xlsx
@@ -633,10 +633,10 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -650,10 +650,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -667,10 +667,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -684,10 +684,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -701,10 +701,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -735,10 +735,10 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
